--- a/biology/Médecine/Loprazolam/Loprazolam.xlsx
+++ b/biology/Médecine/Loprazolam/Loprazolam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le loprazolam (nom commerciaux: Havlane en France, Dormonoct en Belgique) est une molécule dérivée de la famille des benzodiazépines, et comme tous les membres de cette famille, possède des propriétés myorelaxantes, anxiolytiques, hypno-sédatives. Elle est utilisée comme traitement à court terme d'insomnie sévère.
 Il est proche structurellement du clonazolam, dont ils se différencie par la présence d'une pipérazine rattachée à son imidazole, ce qui le rend beaucoup moins lipophile.
-Introduit sur le marché durant les années 1980[2], le loprazolam n'est pas produit aujourd'hui comme médicament générique et est fabriqué par le groupe Sanofi. En 2017, 2 millions de boîtes de Havlane ont été vendues en France, il est le quatrième hypnotique le plus prescrit[3].
+Introduit sur le marché durant les années 1980, le loprazolam n'est pas produit aujourd'hui comme médicament générique et est fabriqué par le groupe Sanofi. En 2017, 2 millions de boîtes de Havlane ont été vendues en France, il est le quatrième hypnotique le plus prescrit.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La puissance du loprazolam est équivalente à celle du lormétazépam. Mais le loprazolam, qui est moins lipophile, a un délai d'action plus long et plus progressif que le lormétazépam : pic d'absorption (Tmax) de 3 heures et demie en moyenne pour le couple loprazolam / métabolite actif pipérazine N-oxyde[4] (autre source https://www.medicines.org.uk/emc/product/4192/smpc), contre moins de 1,5h[5],[6] pour le lormétazépam.
-Les deux produits sont utilisés pour garantir la sédation durant une nuit entière, et leur consommation à des doses de 2 mg comporte un risque de sédation résiduelle le lendemain matin[7]. L'élimination plutôt rapide du loprazolam (demi-vie de 8h[8],[9],[10]) et la faible activité de son métabolite actif (une pipérazine ne représentant que 18% de ses métabolites totaux[11]) permettent néanmoins de limiter son accumulation en cas d'usage quotidien, comparé à d'autres produits éliminés plus lentement tels le nitrazépam et l'estazolam.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La puissance du loprazolam est équivalente à celle du lormétazépam. Mais le loprazolam, qui est moins lipophile, a un délai d'action plus long et plus progressif que le lormétazépam : pic d'absorption (Tmax) de 3 heures et demie en moyenne pour le couple loprazolam / métabolite actif pipérazine N-oxyde (autre source https://www.medicines.org.uk/emc/product/4192/smpc), contre moins de 1,5h, pour le lormétazépam.
+Les deux produits sont utilisés pour garantir la sédation durant une nuit entière, et leur consommation à des doses de 2 mg comporte un risque de sédation résiduelle le lendemain matin. L'élimination plutôt rapide du loprazolam (demi-vie de 8h) et la faible activité de son métabolite actif (une pipérazine ne représentant que 18% de ses métabolites totaux) permettent néanmoins de limiter son accumulation en cas d'usage quotidien, comparé à d'autres produits éliminés plus lentement tels le nitrazépam et l'estazolam.
 Le zolpidem et le zopiclone lui sont parfois préférés par les médecins pour leur action plus rapide et plus courte.
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tout comme les nombreux produits apparentés, le loprazolam influence l'action du GABA en renforçant l'activité des récepteurs GABA-A-alpha[12], activés de manière naturelle par le corps. On parle alors d'un modulateur allostérique positif. Contrairement au barbital, ce produit n'est pas un agoniste de ces récepteurs et ne fait que renforcer leur activité lors de leur activation naturelle[13] (ou bien par le fait d'un autre agoniste, comme l'alcool) ce qui limite quelque peu les risques de surdosage.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme les nombreux produits apparentés, le loprazolam influence l'action du GABA en renforçant l'activité des récepteurs GABA-A-alpha, activés de manière naturelle par le corps. On parle alors d'un modulateur allostérique positif. Contrairement au barbital, ce produit n'est pas un agoniste de ces récepteurs et ne fait que renforcer leur activité lors de leur activation naturelle (ou bien par le fait d'un autre agoniste, comme l'alcool) ce qui limite quelque peu les risques de surdosage.
 </t>
         </is>
       </c>
@@ -578,11 +594,13 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables à déplorer sont les mêmes que pour les autres produits de sa classe, avec notamment une certaine somnolence, ainsi que des pertes de mémoire (affectant surtout la mémoire épisodique et la mémoire sémantique)[14]. Les risques de rencontrer ces complications varient de façon notoire en fonction des doses. Ce produit étant particulièrement lent à l'absorption[15], l'impact potentiel sur la mémoire est quelque peu réduit, notamment chez l'utilisateur novice.
-S'il est utilisé sur le long terme et a fortiori en grandes quantités, il peut mener à une tolérance et une dépendance non négligeable. Au dosage d'1 mg auquel il est prescrit et conditionné, il n'entraîne cependant pas de tolérance significative sur le long terme[8] et il conserve ainsi son potentiel hypnotique durablement.
-Une étude récente a mis en exergue le rôle possible de certaines benzodiazépines dans le développement de la maladie d'Alzheimer[16]. Toutefois, leur rôle dans l'apparition de ces symptômes est contredit par des études contradictoires[17]. Davantage de recherche est nécessaire pour s'exprimer avec aplomb sur le rôle de ces médicaments vis-à-vis des cas de démence ou de certains cancers[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables à déplorer sont les mêmes que pour les autres produits de sa classe, avec notamment une certaine somnolence, ainsi que des pertes de mémoire (affectant surtout la mémoire épisodique et la mémoire sémantique). Les risques de rencontrer ces complications varient de façon notoire en fonction des doses. Ce produit étant particulièrement lent à l'absorption, l'impact potentiel sur la mémoire est quelque peu réduit, notamment chez l'utilisateur novice.
+S'il est utilisé sur le long terme et a fortiori en grandes quantités, il peut mener à une tolérance et une dépendance non négligeable. Au dosage d'1 mg auquel il est prescrit et conditionné, il n'entraîne cependant pas de tolérance significative sur le long terme et il conserve ainsi son potentiel hypnotique durablement.
+Une étude récente a mis en exergue le rôle possible de certaines benzodiazépines dans le développement de la maladie d'Alzheimer. Toutefois, leur rôle dans l'apparition de ces symptômes est contredit par des études contradictoires. Davantage de recherche est nécessaire pour s'exprimer avec aplomb sur le rôle de ces médicaments vis-à-vis des cas de démence ou de certains cancers.
 </t>
         </is>
       </c>
